--- a/PlayerData.xlsx
+++ b/PlayerData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/lab5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8725A33B-8661-BA4A-9498-B127D0E689BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0820444-F432-AA4C-8F91-5BD676EACE39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{96C7FCEA-5817-EE46-B194-DD4F7CFAC306}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{96C7FCEA-5817-EE46-B194-DD4F7CFAC306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>AVG▼</t>
-  </si>
-  <si>
     <t>OBP</t>
   </si>
   <si>
@@ -538,6 +535,9 @@
   </si>
   <si>
     <t>* Iannetta, C</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
   <dimension ref="A1:AE131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,52 +964,52 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1112,10 +1112,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3">
         <v>2279</v>
@@ -1207,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1590</v>
@@ -1302,10 +1302,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5">
         <v>1078</v>
@@ -1397,10 +1397,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6">
         <v>1158</v>
@@ -1492,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1587,10 +1587,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>2708</v>
@@ -1682,10 +1682,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
       <c r="D9">
         <v>936</v>
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1872,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1967,10 +1967,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
       <c r="D12">
         <v>1903</v>
@@ -2062,10 +2062,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>1282</v>
@@ -2157,10 +2157,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>807</v>
@@ -2252,10 +2252,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>1597</v>
@@ -2347,10 +2347,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>1108</v>
@@ -2442,10 +2442,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>1067</v>
@@ -2537,10 +2537,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>1203</v>
@@ -2632,10 +2632,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>939</v>
@@ -2727,10 +2727,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>914</v>
@@ -2822,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -2917,7 +2917,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -3012,7 +3012,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -3107,10 +3107,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
       </c>
       <c r="D24">
         <v>1291</v>
@@ -3202,7 +3202,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -3297,10 +3297,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>1666</v>
@@ -3392,10 +3392,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>2016</v>
@@ -3487,10 +3487,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>916</v>
@@ -3582,10 +3582,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29">
         <v>1516</v>
@@ -3677,10 +3677,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
         <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
       </c>
       <c r="D30">
         <v>1334</v>
@@ -3772,10 +3772,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>1768</v>
@@ -3867,10 +3867,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32">
         <v>1131</v>
@@ -3962,10 +3962,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>1701</v>
@@ -4057,10 +4057,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>834</v>
@@ -4152,10 +4152,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35">
         <v>857</v>
@@ -4247,10 +4247,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>1235</v>
@@ -4342,10 +4342,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>1443</v>
@@ -4437,10 +4437,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38">
         <v>1877</v>
@@ -4532,10 +4532,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>1118</v>
@@ -4627,10 +4627,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>1434</v>
@@ -4722,7 +4722,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -4817,10 +4817,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42">
         <v>1885</v>
@@ -4912,10 +4912,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <v>1359</v>
@@ -5007,7 +5007,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -5102,7 +5102,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -5197,10 +5197,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <v>1616</v>
@@ -5292,10 +5292,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>1650</v>
@@ -5387,10 +5387,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>942</v>
@@ -5482,10 +5482,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>1222</v>
@@ -5577,10 +5577,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50">
         <v>1702</v>
@@ -5672,10 +5672,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51">
         <v>815</v>
@@ -5767,10 +5767,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D52">
         <v>1364</v>
@@ -5862,10 +5862,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D53">
         <v>1115</v>
@@ -5957,10 +5957,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54">
         <v>1482</v>
@@ -6052,10 +6052,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55">
         <v>1491</v>
@@ -6147,7 +6147,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -6242,7 +6242,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
@@ -6337,7 +6337,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -6432,10 +6432,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" t="s">
         <v>94</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
       </c>
       <c r="D59">
         <v>1578</v>
@@ -6527,10 +6527,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60">
         <v>826</v>
@@ -6622,7 +6622,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -6717,10 +6717,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62">
         <v>1115</v>
@@ -6812,10 +6812,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63">
         <v>1344</v>
@@ -6907,10 +6907,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64">
         <v>1454</v>
@@ -7002,7 +7002,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
@@ -7097,7 +7097,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -7192,10 +7192,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67">
         <v>1371</v>
@@ -7287,10 +7287,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>1076</v>
@@ -7382,7 +7382,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -7477,10 +7477,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70">
         <v>1147</v>
@@ -7572,10 +7572,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71">
         <v>1634</v>
@@ -7667,10 +7667,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D72">
         <v>1324</v>
@@ -7762,10 +7762,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D73">
         <v>942</v>
@@ -7857,10 +7857,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74">
         <v>1190</v>
@@ -7952,7 +7952,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -8047,7 +8047,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -8142,10 +8142,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D77">
         <v>942</v>
@@ -8237,10 +8237,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <v>945</v>
@@ -8332,7 +8332,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -8427,10 +8427,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80">
         <v>1822</v>
@@ -8522,10 +8522,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <v>966</v>
@@ -8617,10 +8617,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82">
         <v>1243</v>
@@ -8712,7 +8712,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -8807,10 +8807,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D84">
         <v>1675</v>
@@ -8902,10 +8902,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85">
         <v>1354</v>
@@ -8997,10 +8997,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86">
         <v>1419</v>
@@ -9092,10 +9092,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87">
         <v>1066</v>
@@ -9187,7 +9187,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -9282,10 +9282,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89">
         <v>1287</v>
@@ -9377,10 +9377,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D90">
         <v>915</v>
@@ -9472,10 +9472,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D91">
         <v>1156</v>
@@ -9567,10 +9567,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92">
         <v>1249</v>
@@ -9662,10 +9662,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D93">
         <v>1373</v>
@@ -9757,10 +9757,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94">
         <v>1568</v>
@@ -9852,10 +9852,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95">
         <v>1400</v>
@@ -9947,7 +9947,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -10042,10 +10042,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D97">
         <v>1437</v>
@@ -10137,10 +10137,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D98">
         <v>1185</v>
@@ -10232,10 +10232,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D99">
         <v>1039</v>
@@ -10327,10 +10327,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100">
         <v>1427</v>
@@ -10422,10 +10422,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D101">
         <v>1121</v>
@@ -10517,10 +10517,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D102">
         <v>1062</v>
@@ -10612,10 +10612,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103">
         <v>1084</v>
@@ -10707,7 +10707,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -10802,10 +10802,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D105">
         <v>829</v>
@@ -10897,10 +10897,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D106">
         <v>1934</v>
@@ -10992,10 +10992,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D107">
         <v>1009</v>
@@ -11087,10 +11087,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D108">
         <v>1085</v>
@@ -11182,10 +11182,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D109">
         <v>1616</v>
@@ -11277,7 +11277,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -11372,10 +11372,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D111">
         <v>1293</v>
@@ -11467,10 +11467,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D112">
         <v>953</v>
@@ -11562,10 +11562,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113">
         <v>1798</v>
@@ -11657,10 +11657,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114">
         <v>1526</v>
@@ -11752,10 +11752,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115">
         <v>1392</v>
@@ -11847,7 +11847,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -11942,10 +11942,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D117">
         <v>1469</v>
@@ -12037,7 +12037,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -12132,10 +12132,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D119">
         <v>930</v>
@@ -12227,10 +12227,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D120">
         <v>1092</v>
@@ -12322,10 +12322,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121">
         <v>1191</v>
@@ -12417,10 +12417,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" t="s">
         <v>158</v>
-      </c>
-      <c r="C122" t="s">
-        <v>159</v>
       </c>
       <c r="D122">
         <v>372</v>
@@ -12512,10 +12512,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D123">
         <v>959</v>
@@ -12607,10 +12607,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D124">
         <v>665</v>
@@ -12702,7 +12702,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -12797,10 +12797,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D126">
         <v>1625</v>
@@ -12892,10 +12892,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D127">
         <v>1016</v>
@@ -12987,10 +12987,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D128">
         <v>1311</v>
@@ -13082,10 +13082,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D129">
         <v>1465</v>
@@ -13177,10 +13177,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D130">
         <v>1142</v>
@@ -13272,10 +13272,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D131">
         <v>1155</v>
